--- a/similarities/split_global/harmonic_similarity_timestamps_104.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_104.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['A:min', 'E', 'A:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:59.680000', '0:01:05.780000')]</t>
+          <t>('0:00:12.824000', '0:00:20.865000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:43', '0:02:02.840000')]</t>
+          <t>('0:00:01.180000', '0:00:06.140000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=59.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=12.824</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=103.0']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=1.18</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>['G:7', 'C:maj', 'C:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:12.520000', '0:01:23.280000'), ('0:00:40.820000', '0:00:43.620000'), ('0:01:34.800000', '0:01:46.960000')]</t>
+          <t>('0:01:00.680000', '0:01:03.420000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:04:14.260000', '0:04:20.200000'), ('0:00:23.040000', '0:00:28.920000'), ('0:00:07.840000', '0:00:11.420000')]</t>
+          <t>('0:00:30.740000', '0:00:41.860000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=72.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=94.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.68</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=23.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=7.84']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=30.74</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B', 'E']]</t>
+          <t>['G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E', 'A/3', 'E/5', 'A/3']]</t>
+          <t>['F:7/D#', 'A#:maj/D', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:30.720385', '0:01:50.178707')]</t>
+          <t>('0:00:58.120000', '0:01:02.720000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:47.176000', '0:00:54.592000')]</t>
+          <t>('0:01:06.040000', '0:01:08.540000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=90.720385']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=58.12</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=47.176']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=66.04</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:06.920000', '0:01:08.180000')]</t>
+          <t>('0:02:11.200000', '0:02:16.340000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:19.130000', '0:00:20.830000')]</t>
+          <t>('0:00:00.680000', '0:00:02.980000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_42</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Ab', 'C:min', 'Bb/3', 'Eb']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F', 'A:min', 'G', 'C']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:04.314000', '0:00:08.730000')]</t>
+          <t>('0:00:16.040000', '0:00:22.400000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:40.225034', '0:00:48.640189')]</t>
+          <t>('0:01:02.200000', '0:01:04.400000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=4.314']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-205#t=40.225034']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_42</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F:7']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F:7']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:25.830000', '0:00:31.310000')]</t>
+          <t>('0:00:02.560000', '0:00:21.440000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:41.770000', '0:00:54.590000')]</t>
+          <t>('0:00:12.921927', '0:00:21.908049')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=25.83']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=2.56</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-42#t=41.77']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=12.921927</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>isophonics_259</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>isophonics_44</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['C#:min', 'F#:min', 'A']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>['E:min', 'A:min', 'C']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:55.180000', '0:01:05.560000')]</t>
+          <t>('0:00:43.283000', '0:00:48.101000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:14.879000', '0:01:27.795000')]</t>
+          <t>('0:00:42.696258', '0:00:48.303877')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=43.283</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-44#t=42.696258</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C:7', 'F:7', 'Bb', 'Bb:7']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab', 'Ab:7']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:16.240000', '0:00:24.340000')]</t>
+          <t>('0:00:19.140000', '0:00:24.880000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
+          <t>('0:00:14.400000', '0:00:20.600000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=19.14</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=14.4</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>jaah_16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min'], ['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['B:7', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['F#:7/A#', 'B:7/A', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:00.980000', '0:00:06.140000'), ('0:02:11.200000', '0:02:16.340000'), ('0:00:37.840000', '0:00:42.820000')]</t>
+          <t>('0:00:42.960000', '0:00:45.780000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:12.140000', '0:00:20.020000'), ('0:01:14.100000', '0:01:20.040000'), ('0:00:34.860000', '0:00:39.700000')]</t>
+          <t>('0:00:51.080000', '0:00:57.700000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=37.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=42.96</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=74.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=34.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=51.08</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:59.220000', '0:01:06.880000')]</t>
+          <t>('0:00:13.980000', '0:00:21.500000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:07.525011', '0:00:12.935260')]</t>
+          <t>('0:01:25.580000', '0:01:34.240000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=13.98</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=7.525011']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=85.58</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:21.780000', '0:00:31.740000')]</t>
+          <t>('0:01:12.820000', '0:01:24.380000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+          <t>('0:00:18.060000', '0:00:20.600000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=18.06</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>isophonics_290</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'G:7', 'C']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:18.870000', '0:00:25.690000')]</t>
+          <t>('0:00:08.482392', '0:00:11.666439')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:29.740000', '0:00:47.630000')]</t>
+          <t>('0:00:40.960000', '0:00:43.300000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=18.87']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=8.482392</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=29.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:14.450219', '0:00:23.088042')]</t>
+          <t>('0:00:02.500000', '0:00:26.200000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+          <t>('0:00:46.560000', '0:00:49.080000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=14.450219']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=2.5</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_22</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:01.540000', '0:00:06.680000'), ('0:00:09.780000', '0:00:14.360000')]</t>
+          <t>('0:00:20.580000', '0:00:32.500000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:13.740000', '0:00:22.560000'), ('0:01:24', '0:01:30.840000')]</t>
+          <t>('0:00:06.880000', '0:00:12.960000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=9.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=20.58</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=84.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=6.88</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:20.560000', '0:00:23.940000')]</t>
+          <t>('0:00:15.530000', '0:00:16.900000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:19.980000', '0:01:33.600000')]</t>
+          <t>('0:00:00.720000', '0:00:17.050000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=15.53</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
